--- a/com.conseg.NewCastleDataLoader.eclipse/data/Historical attendance by room-anon.xlsx
+++ b/com.conseg.NewCastleDataLoader.eclipse/data/Historical attendance by room-anon.xlsx
@@ -22,7 +22,6 @@
     <sheet name="USB 4.022" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="USB 5.023" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="USB G.003" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Sheet12" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -42230,7 +42229,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43460,32 +43459,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.53"/>
-  </cols>
-  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -43503,7 +43476,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A892" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A882" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A897" activeCellId="0" sqref="A897"/>
     </sheetView>
   </sheetViews>
@@ -56059,6 +56032,99 @@
         <v>187</v>
       </c>
     </row>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
